--- a/CORE/files/excel/SL put zahtjev broj-186.xlsx
+++ b/CORE/files/excel/SL put zahtjev broj-186.xlsx
@@ -34,7 +34,7 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>21.09.2021</t>
+    <t>22.09.2021</t>
   </si>
   <si>
     <t>godine</t>
@@ -121,19 +121,22 @@
     <t>Obračun troškova putovanja</t>
   </si>
   <si>
+    <t>Na put sam krenuo-la</t>
+  </si>
+  <si>
+    <t>18.09.2021</t>
+  </si>
+  <si>
+    <t>god. u</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
     <t>boravio-la u vezi sa prednjim putnim nalogom u ovom preduzeću - organu</t>
   </si>
   <si>
-    <t>Na put sam krenuo-la</t>
-  </si>
-  <si>
-    <t>18.09.2021</t>
-  </si>
-  <si>
-    <t>god. u</t>
-  </si>
-  <si>
-    <t>00:00</t>
+    <t xml:space="preserve">Vratio -la sam se dana </t>
   </si>
   <si>
     <t>od</t>
@@ -142,51 +145,48 @@
     <t>do</t>
   </si>
   <si>
-    <t xml:space="preserve">Vratio -la sam se dana </t>
-  </si>
-  <si>
     <t>Na putu sam proveo-la</t>
   </si>
   <si>
     <t xml:space="preserve">dana i </t>
   </si>
   <si>
+    <t>A) Troškovi prevoza</t>
+  </si>
+  <si>
+    <t>UKUPNO</t>
+  </si>
+  <si>
     <t>(potpis ovlaštenog lica)</t>
   </si>
   <si>
-    <t>A) Troškovi prevoza</t>
-  </si>
-  <si>
-    <t>UKUPNO</t>
+    <t>Relacija</t>
+  </si>
+  <si>
+    <t>Iznos</t>
   </si>
   <si>
     <t>2. Potvrđuje se da je</t>
   </si>
   <si>
-    <t>Relacija</t>
-  </si>
-  <si>
-    <t>Iznos</t>
-  </si>
-  <si>
     <t>KM</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
+    <t>Prevoz</t>
+  </si>
+  <si>
+    <t>B) Dnevnice</t>
+  </si>
+  <si>
+    <t>dnevnice po KM</t>
+  </si>
+  <si>
     <t>3. Potvrđuje se da je</t>
   </si>
   <si>
-    <t>Prevoz</t>
-  </si>
-  <si>
-    <t>B) Dnevnice</t>
-  </si>
-  <si>
-    <t>dnevnice po KM</t>
-  </si>
-  <si>
     <t>dnevnice po EUR</t>
   </si>
   <si>
@@ -196,40 +196,40 @@
     <t>dnevnice</t>
   </si>
   <si>
+    <t>C) Ostali izdaci (uz dokumentaciju)</t>
+  </si>
+  <si>
+    <t>ostali izdaci</t>
+  </si>
+  <si>
+    <t>D) Ukupni troškovi putovanja</t>
+  </si>
+  <si>
     <t>4. Potvrđuje se da je</t>
   </si>
   <si>
-    <t>C) Ostali izdaci (uz dokumentaciju)</t>
-  </si>
-  <si>
-    <t>ostali izdaci</t>
-  </si>
-  <si>
-    <t>D) Ukupni troškovi putovanja</t>
-  </si>
-  <si>
     <t>E) Primljena akontacija</t>
   </si>
   <si>
+    <t>F) Ostaje za isplatu-povrat</t>
+  </si>
+  <si>
+    <t>Isplatio:</t>
+  </si>
+  <si>
+    <t>Odobrio:</t>
+  </si>
+  <si>
+    <t>Likvidirao:</t>
+  </si>
+  <si>
+    <t>Obračunao:</t>
+  </si>
+  <si>
+    <t>Primio:</t>
+  </si>
+  <si>
     <t>5. Potvrđuje se da je</t>
-  </si>
-  <si>
-    <t>F) Ostaje za isplatu-povrat</t>
-  </si>
-  <si>
-    <t>Isplatio:</t>
-  </si>
-  <si>
-    <t>Odobrio:</t>
-  </si>
-  <si>
-    <t>Likvidirao:</t>
-  </si>
-  <si>
-    <t>Obračunao:</t>
-  </si>
-  <si>
-    <t>Primio:</t>
   </si>
 </sst>
 </file>
@@ -307,7 +307,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="40">
     <border/>
     <border>
       <left style="thin">
@@ -371,10 +371,31 @@
       </right>
     </border>
     <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -382,14 +403,72 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -398,10 +477,184 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -409,200 +662,12 @@
       <top style="dotted">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="128">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -699,275 +764,293 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="17" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="18" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="23" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="24" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="25" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="27" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="28" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="35" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="36" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="37" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="2" fillId="2" borderId="37" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="38" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="2" fillId="2" borderId="38" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="2" fillId="2" borderId="13" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="2" fillId="2" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="2" fillId="2" borderId="10" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="17" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="18" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="23" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="23" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="29" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="30" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="31" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="23" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="32" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1272,7 +1355,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1290,12 +1373,12 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -1311,12 +1394,12 @@
       <c r="E2" s="54"/>
       <c r="F2" s="54"/>
       <c r="G2" s="1"/>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1333,9 +1416,9 @@
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1352,10 +1435,10 @@
       <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="104"/>
       <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1406,16 +1489,16 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
     </row>
     <row r="8" spans="1:16" customHeight="1" ht="14.4">
       <c r="A8" s="1"/>
@@ -1442,16 +1525,16 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1"/>
@@ -1461,16 +1544,16 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
     </row>
     <row r="11" spans="1:16" customHeight="1" ht="21">
       <c r="A11" s="1"/>
@@ -1480,19 +1563,19 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="62" t="s">
+      <c r="J11" s="50"/>
+      <c r="K11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="62"/>
-      <c r="M11" s="59" t="s">
+      <c r="L11" s="49"/>
+      <c r="M11" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="59"/>
-      <c r="O11" s="41" t="s">
+      <c r="N11" s="50"/>
+      <c r="O11" s="106" t="s">
         <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
@@ -1507,20 +1590,20 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="38" t="s">
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="59" t="s">
+      <c r="M12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
     </row>
     <row r="13" spans="1:16" customHeight="1" ht="24.6">
       <c r="A13" s="1"/>
@@ -1530,14 +1613,14 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
     </row>
     <row r="14" spans="1:16" customHeight="1" ht="24">
       <c r="A14" s="1"/>
@@ -1550,15 +1633,15 @@
       <c r="I14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="58" t="s">
+      <c r="J14" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
     </row>
     <row r="15" spans="1:16" customHeight="1" ht="24">
       <c r="A15" s="1"/>
@@ -1568,22 +1651,22 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="58">
+      <c r="J15" s="50"/>
+      <c r="K15" s="104">
         <v>0</v>
       </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="53" t="s">
+      <c r="L15" s="104"/>
+      <c r="M15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="68">
+      <c r="N15" s="104">
         <v>0</v>
       </c>
-      <c r="O15" s="68"/>
-      <c r="P15" s="53" t="s">
+      <c r="O15" s="104"/>
+      <c r="P15" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1595,16 +1678,16 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
     </row>
     <row r="17" spans="1:16" customHeight="1" ht="24">
       <c r="A17" s="1"/>
@@ -1614,16 +1697,16 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
     </row>
     <row r="18" spans="1:16" customHeight="1" ht="24">
       <c r="A18" s="1"/>
@@ -1633,18 +1716,18 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="60" t="s">
+      <c r="J18" s="50"/>
+      <c r="K18" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
@@ -1693,9 +1776,9 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1"/>
@@ -1704,7 +1787,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="47"/>
+      <c r="G22" s="40"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1739,8 +1822,8 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="6"/>
@@ -1755,11 +1838,11 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:16">
@@ -1794,274 +1877,264 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="42"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="6"/>
     </row>
     <row r="32" spans="1:16" customHeight="1" ht="100.8">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="48"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="48"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="I7:P7"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="I9:P9"/>
@@ -2078,6 +2151,16 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I7:P7"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:O15"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2099,10 +2182,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2118,131 +2201,133 @@
   <sheetData>
     <row r="1" spans="1:16" customHeight="1" ht="24">
       <c r="A1" s="1"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
       <c r="G1" s="1"/>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="43" t="s">
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" customHeight="1" ht="24">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="I2" s="99" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="I2" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
     </row>
     <row r="3" spans="1:16" customHeight="1" ht="24">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="I3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="I3" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="49"/>
+      <c r="N3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="62"/>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="106" t="s">
         <v>37</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>38</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:16" customHeight="1" ht="24">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="I4" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="58" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="51"/>
+      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>38</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:16" customHeight="1" ht="24">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="I5" s="59" t="s">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="58">
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="104">
         <v>0</v>
       </c>
-      <c r="M5" s="58"/>
+      <c r="M5" s="104"/>
       <c r="N5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="124">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="s">
@@ -2254,11 +2339,9 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -2269,339 +2352,331 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" customHeight="1" ht="19.8">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="126"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="I7" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="I7" s="100" t="s">
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="102" t="s">
+      <c r="P7" s="79"/>
+    </row>
+    <row r="8" spans="1:16" customHeight="1" ht="18.6">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="103"/>
-    </row>
-    <row r="8" spans="1:16" customHeight="1" ht="18.6">
-      <c r="A8" s="70" t="s">
+      <c r="G8" s="47"/>
+      <c r="I8" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="I8" s="104" t="s">
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="O8" s="20"/>
       <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="108"/>
+      <c r="A9" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="74"/>
       <c r="M9" s="17"/>
       <c r="N9" s="15"/>
       <c r="O9" s="14"/>
       <c r="P9" s="31"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="108"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
       <c r="M10" s="17"/>
       <c r="N10" s="15"/>
       <c r="O10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="32" t="str">
+      <c r="P10" s="116" t="str">
         <f>SUM(N9,N10,N11,N12,N13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="39"/>
+      <c r="A11" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="35"/>
       <c r="N11" s="16"/>
       <c r="O11" s="14"/>
       <c r="P11" s="31"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="65"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="40"/>
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="36"/>
       <c r="N12" s="2"/>
       <c r="O12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="P12" s="49" t="str">
+      <c r="P12" s="117" t="str">
         <f>P10/1.95</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="119" t="s">
+      <c r="P13" s="58"/>
+    </row>
+    <row r="14" spans="1:16" customHeight="1" ht="18">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="126"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="I14" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="120"/>
-    </row>
-    <row r="14" spans="1:16" customHeight="1" ht="18">
-      <c r="A14" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="I14" s="111" t="s">
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="32"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="I15" s="109">
+        <v>0</v>
+      </c>
+      <c r="J15" s="110"/>
+      <c r="K15" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="33"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="116">
+      <c r="L15" s="22"/>
+      <c r="M15" s="110">
         <v>0</v>
       </c>
-      <c r="J15" s="117"/>
-      <c r="K15" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="117">
-        <v>0</v>
-      </c>
-      <c r="N15" s="117"/>
+      <c r="N15" s="112"/>
       <c r="O15" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="I16" s="118">
+      <c r="A16" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="I16" s="113">
         <v>0</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="91" t="s">
+      <c r="J16" s="104"/>
+      <c r="K16" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="L16" s="91"/>
-      <c r="M16" s="74">
+      <c r="L16" s="99"/>
+      <c r="M16" s="114">
         <v>0</v>
       </c>
-      <c r="N16" s="74"/>
+      <c r="N16" s="115"/>
       <c r="O16" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="35">
+      <c r="P16" s="119">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="69"/>
-      <c r="I17" s="113" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="I17" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="74">
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="67">
         <v>110</v>
       </c>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="109" t="s">
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="110"/>
+      <c r="P17" s="60"/>
     </row>
     <row r="18" spans="1:16" customHeight="1" ht="21">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="I18" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="I18" s="114" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="25"/>
-      <c r="P18" s="33"/>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="37"/>
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="88"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="33"/>
       <c r="O19" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P19" s="34" t="str">
+      <c r="P19" s="118" t="str">
         <f>SUM(N19:N21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="81"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="37"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="33"/>
       <c r="O20" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="P20" s="50" t="str">
+      <c r="P20" s="120" t="str">
         <f>P19/1.95</f>
         <v>0</v>
       </c>
@@ -2610,206 +2685,210 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="109" t="s">
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="126"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="60"/>
+    </row>
+    <row r="22" spans="1:16" customHeight="1" ht="14.4">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="47"/>
+      <c r="I22" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="110"/>
-    </row>
-    <row r="22" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="I22" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="85"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="92"/>
       <c r="O22" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="35" t="str">
+      <c r="P22" s="32" t="str">
         <f>SUM(P10,P15,P19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="69"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="88"/>
+      <c r="A23" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="95"/>
       <c r="O23" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="P23" s="50" t="str">
+      <c r="P23" s="120" t="str">
         <f>SUM(P12,P16,P20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="I24" s="83" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="I24" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="85"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="92"/>
       <c r="O24" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="P24" s="35"/>
+      <c r="P24" s="118"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="90"/>
+      <c r="A25" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="98"/>
       <c r="O25" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="P25" s="50">
+      <c r="P25" s="120">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" customHeight="1" ht="20.4">
-      <c r="A26" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="I26" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
       <c r="L26" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="M26" s="94" t="str">
+      <c r="M26" s="62" t="str">
         <f>P22-P24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="95"/>
-      <c r="O26" s="44" t="s">
+      <c r="N26" s="63"/>
+      <c r="O26" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="P26" s="50" t="str">
+      <c r="P26" s="121" t="str">
         <f>P23-P25</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="75" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="I27" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="77" t="s">
+      <c r="K27" s="85"/>
+      <c r="L27" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="K27" s="78"/>
-      <c r="L27" s="77" t="s">
+      <c r="M27" s="85"/>
+      <c r="N27" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="M27" s="78"/>
-      <c r="N27" s="77" t="s">
+      <c r="O27" s="85"/>
+      <c r="P27" s="80" t="s">
         <v>69</v>
-      </c>
-      <c r="O27" s="78"/>
-      <c r="P27" s="72" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:16" customHeight="1" ht="25.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="73"/>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="126"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="81"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="47"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2820,15 +2899,15 @@
       <c r="P29" s="11"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="69"/>
+      <c r="A30" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -2839,13 +2918,15 @@
       <c r="P30" s="11"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -2856,13 +2937,15 @@
       <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="A32" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2873,13 +2956,19 @@
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2889,15 +2978,15 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="I34" s="18"/>
+    <row r="34" spans="1:16" customHeight="1" ht="10.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -2907,54 +2996,58 @@
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="126"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="47"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16">
@@ -2963,15 +3056,15 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16">
@@ -2980,26 +3073,25 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="19"/>
+      <c r="P39" s="1"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="11"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="1"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -3010,13 +3102,14 @@
       <c r="P40" s="19"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="11"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -3027,13 +3120,13 @@
       <c r="P41" s="19"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="11"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="D42" s="48"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="G42" s="48"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -3044,54 +3137,622 @@
       <c r="P42" s="19"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="P43" s="19"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="102"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="102"/>
+      <c r="O46" s="102"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="44"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="43"/>
+      <c r="J47" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="48"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="44"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="M48" s="125"/>
+      <c r="N48" s="125"/>
+      <c r="O48" s="125"/>
+      <c r="P48" s="125"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="J49" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="J50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="43"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N52" s="126"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="P53" s="47"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="44"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="J54" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="K54" s="48"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="44"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="M55" s="125"/>
+      <c r="N55" s="125"/>
+      <c r="O55" s="125"/>
+      <c r="P55" s="125"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="J56" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="J57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="43"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N59" s="126"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="P60" s="47"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="44"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="J61" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="K61" s="48"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="44"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="M62" s="125"/>
+      <c r="N62" s="125"/>
+      <c r="O62" s="125"/>
+      <c r="P62" s="125"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="48"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="J63" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N66" s="126"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="P67" s="47"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="J68" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="K68" s="48"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="46"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="J69" s="44"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="M69" s="125"/>
+      <c r="N69" s="125"/>
+      <c r="O69" s="125"/>
+      <c r="P69" s="125"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="J70" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="48"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="J71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N73" s="126"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="P74" s="47"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="J75" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="K75" s="48"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="46"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="J76" s="44"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="M76" s="125"/>
+      <c r="N76" s="125"/>
+      <c r="O76" s="125"/>
+      <c r="P76" s="125"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="J77" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K77" s="48"/>
+      <c r="L77" s="48"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="48"/>
+      <c r="O77" s="48"/>
+      <c r="P77" s="48"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="J78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N80" s="126"/>
+      <c r="O80" s="46"/>
+      <c r="P80" s="46"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="P81" s="47"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L69:P69"/>
+    <mergeCell ref="L76:P76"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="L48:P48"/>
+    <mergeCell ref="L55:P55"/>
+    <mergeCell ref="L62:P62"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="P27:P28"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="I27:I28"/>
@@ -3107,24 +3768,32 @@
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C17:G17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CORE/files/excel/SL put zahtjev broj-186.xlsx
+++ b/CORE/files/excel/SL put zahtjev broj-186.xlsx
@@ -34,7 +34,7 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>22.09.2021</t>
+    <t>17.11.2021</t>
   </si>
   <si>
     <t>godine</t>
